--- a/subjects/resources/2/andan/LR5.xlsx
+++ b/subjects/resources/2/andan/LR5.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\2 курс\анализ данных\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\2\andan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -651,6 +651,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFEB-4FB8-B8DB-1CD287B1EF6C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -789,9 +794,13 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFEB-4FB8-B8DB-1CD287B1EF6C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
